--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T15:34:16-05:00</t>
+    <t>2022-07-29T16:31:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T16:31:05-05:00</t>
+    <t>2022-08-02T11:06:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T11:06:34-05:00</t>
+    <t>2022-08-02T15:12:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:35:45-05:00</t>
+    <t>2022-09-02T15:43:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,31 +129,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>$CADSR:4722619</t>
+    <t>4722619</t>
   </si>
   <si>
     <t>Acute GVHD</t>
   </si>
   <si>
-    <t>$CADSR:2991794</t>
+    <t>Acute Graft Vs Host Disease</t>
+  </si>
+  <si>
+    <t>2991794</t>
   </si>
   <si>
     <t>Classic cGVHD</t>
   </si>
   <si>
-    <t>$CADSR:2991795</t>
+    <t>Classic chronic Graft Vs Host Disease</t>
+  </si>
+  <si>
+    <t>2991795</t>
   </si>
   <si>
     <t>Overlap cGVHD</t>
   </si>
   <si>
-    <t>$CADSR:2991796</t>
+    <t>Overlap chronic Graft Vs Host Disease</t>
+  </si>
+  <si>
+    <t>2991796</t>
   </si>
   <si>
     <t>Late Acute GVHD</t>
   </si>
   <si>
-    <t>$CADSR:3261243</t>
+    <t>Late Acute Graft Vs Host Disease</t>
+  </si>
+  <si>
+    <t>3261243</t>
   </si>
   <si>
     <t>Not Applicable</t>
@@ -497,55 +509,65 @@
       <c r="C2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T13:29:45-05:00</t>
+    <t>2022-11-09T13:32:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T13:32:08-06:00</t>
+    <t>2022-11-09T14:05:34-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
+++ b/docs/CodeSystem-cibmtr-cadsr-vm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T14:05:34-06:00</t>
+    <t>2022-11-10T14:39:35-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
